--- a/patch/docs/patchList_protocolCore.xlsx
+++ b/patch/docs/patchList_protocolCore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\patch\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27A4C36-AFFF-4029-8AA4-BD471B830514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0B9F14-2BA4-46FE-96DE-52EF4FE13EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Core - patchList" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>SRC_X3_V12_X_V1_0</t>
   </si>
@@ -35,16 +35,10 @@
     <t>Data</t>
   </si>
   <si>
-    <t>18.07.2025</t>
-  </si>
-  <si>
     <t>Nome Patch (Core)</t>
   </si>
   <si>
     <t>SRC_X3_V12_X_TRTC_V1_0</t>
-  </si>
-  <si>
-    <t>22.07.2025</t>
   </si>
   <si>
     <t>Patch per  script core</t>
@@ -117,15 +111,9 @@
     <t>SERVIZI REST</t>
   </si>
   <si>
-    <t>AX3M_API_Prod</t>
-  </si>
-  <si>
     <t>Patch per  elementi X3 core</t>
   </si>
   <si>
-    <t>aggiorna</t>
-  </si>
-  <si>
     <t>Note-Descrizione</t>
   </si>
   <si>
@@ -139,13 +127,89 @@
   </si>
   <si>
     <t>CHPT Cloud 2024R2 v12</t>
+  </si>
+  <si>
+    <t>18.08.2025</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nelle nuove installazioni l'alias del pool sarà : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">WSAX3MPROD </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">AX3M_API_Prod </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nello specifico : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AX3M_API_ &lt;aliasDossier&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Esempio aliasDossier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Svil, Test, Coll, Prod)</t>
+    </r>
+  </si>
+  <si>
+    <t>Pool SOAP</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +226,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -272,6 +345,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -899,6 +984,182 @@
         <a:xfrm>
           <a:off x="5610225" y="21174075"/>
           <a:ext cx="7678222" cy="571580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>923925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8564138</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1590768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Immagine 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0608C85C-433A-CB51-FD65-172B39923300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5438775" y="22831425"/>
+          <a:ext cx="8335538" cy="666843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8449797</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>704927</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Immagine 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13181351-4C67-B7F9-1E9F-51E107BAF95E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5619750" y="22059900"/>
+          <a:ext cx="8040222" cy="552527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1629381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8391525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2009837</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Immagine 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC363701-B8CD-F068-F4C0-540667CBE1F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514975" y="23536881"/>
+          <a:ext cx="8086725" cy="380456"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2131301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8401050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2533715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Immagine 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF5FDEF-1CEA-0160-7A81-DD4C0CBBCCCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5505450" y="24038801"/>
+          <a:ext cx="8105775" cy="402414"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1173,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,43 +1447,37 @@
     <col min="3" max="3" width="56.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7687DBCF-A6D8-4CEA-905C-1653A0EEC1EC}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,24 +1503,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1273,10 +1528,10 @@
     </row>
     <row r="4" spans="1:5" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1284,10 +1539,10 @@
     </row>
     <row r="5" spans="1:5" ht="260.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1295,10 +1550,10 @@
     </row>
     <row r="6" spans="1:5" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1306,10 +1561,10 @@
     </row>
     <row r="7" spans="1:5" ht="228" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1317,33 +1572,45 @@
     </row>
     <row r="8" spans="1:5" ht="277.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="335.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1355,7 +1622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C911D19C-0B41-4FDE-964A-0EDA8C996211}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -1371,24 +1638,24 @@
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="10">
         <v>6203</v>

--- a/patch/docs/patchList_protocolCore.xlsx
+++ b/patch/docs/patchList_protocolCore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\patch\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0B9F14-2BA4-46FE-96DE-52EF4FE13EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DB0325-9D0E-4BC5-815C-70EA1DF6BFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Core - patchList" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>SRC_X3_V12_X_V1_0</t>
   </si>
@@ -118,15 +118,6 @@
   </si>
   <si>
     <t>CHPT X3Cloud</t>
-  </si>
-  <si>
-    <t>CHPT Terremerse</t>
-  </si>
-  <si>
-    <t>CHPT Piave</t>
-  </si>
-  <si>
-    <t>CHPT Cloud 2024R2 v12</t>
   </si>
   <si>
     <t>18.08.2025</t>
@@ -149,7 +140,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">AX3M_API_Prod </t>
+    <t>Pool SOAP</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>AX3M_API_PROD ( non più Prod)</t>
   </si>
   <si>
     <r>
@@ -164,7 +161,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>AX3M_API_ &lt;aliasDossier&gt;</t>
+      <t>AX3M_API_ &lt;aliasDossier(IN MAIUSCOLO)&gt;</t>
     </r>
     <r>
       <rPr>
@@ -195,14 +192,73 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Svil, Test, Coll, Prod)</t>
+      <t xml:space="preserve">: SVIL, TEST, COLL, PROD). </t>
     </r>
-  </si>
-  <si>
-    <t>Pool SOAP</t>
-  </si>
-  <si>
-    <t>/</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ATTENZIONE!! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Gli Alias  degli ambienti associati ai nomi dei servizi rest che vengono creati devono essere </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sempre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> indicat in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MAIUSCOLO.</t>
+    </r>
+  </si>
+  <si>
+    <t>EFFORT -TEST</t>
+  </si>
+  <si>
+    <t>CHPT Terremerse - SVIL-COLL</t>
+  </si>
+  <si>
+    <t>CHPT Piave -SVIL -PROD</t>
+  </si>
+  <si>
+    <t>CHPT Cloud 2024R2 v12 -PROD</t>
   </si>
 </sst>
 </file>
@@ -243,15 +299,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -311,11 +373,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -357,6 +434,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -951,50 +1043,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>8078272</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>781130</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Immagine 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2474103-4036-7112-361C-60FBB45F092C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5610225" y="21174075"/>
-          <a:ext cx="7678222" cy="571580"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>923925</xdr:rowOff>
@@ -1019,7 +1067,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1063,7 +1111,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1107,7 +1155,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1151,7 +1199,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1160,6 +1208,50 @@
         <a:xfrm>
           <a:off x="5505450" y="24038801"/>
           <a:ext cx="8105775" cy="402414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>148960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7454950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1524000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Immagine 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6903ECC-0D20-20CD-E8A4-D894568B66ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5553074" y="21113485"/>
+          <a:ext cx="7112051" cy="1375040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1437,7 +1529,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -1474,7 +1566,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1489,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7687DBCF-A6D8-4CEA-905C-1653A0EEC1EC}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,31 +1677,31 @@
         <v>18</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1620,40 +1712,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C911D19C-0B41-4FDE-964A-0EDA8C996211}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="2" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
+      <c r="C2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1663,8 +1757,11 @@
       <c r="C3" s="10">
         <v>6911</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="10">
+        <v>6205</v>
+      </c>
+      <c r="F3" s="10">
         <v>6205</v>
       </c>
     </row>

--- a/patch/docs/patchList_protocolCore.xlsx
+++ b/patch/docs/patchList_protocolCore.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\patch\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DB0325-9D0E-4BC5-815C-70EA1DF6BFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5F696E-201B-4DD6-A08F-DDF11F3BA8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Core - patchList" sheetId="1" r:id="rId1"/>
     <sheet name="Core- elem porting manuale" sheetId="2" r:id="rId2"/>
     <sheet name="Local menu" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle diverse" sheetId="4" r:id="rId4"/>
+    <sheet name="Param Generali" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>SRC_X3_V12_X_V1_0</t>
   </si>
@@ -259,6 +261,45 @@
   </si>
   <si>
     <t>CHPT Cloud 2024R2 v12 -PROD</t>
+  </si>
+  <si>
+    <t>Profilo Funzione AX3M</t>
+  </si>
+  <si>
+    <t>Parametro generale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabella Diversa </t>
+  </si>
+  <si>
+    <t>Descrizione tabella</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>N° tabella - X3Cloud</t>
+  </si>
+  <si>
+    <t>N° tabella - Terremerse - SVIL-COLL</t>
+  </si>
+  <si>
+    <t>N° tabella - Piave -SVIL -PROD</t>
+  </si>
+  <si>
+    <t>N° tabella - Cloud 2024R2 v12 -PROD</t>
+  </si>
+  <si>
+    <t>N° tabella -EFFORT -TEST</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Tabella Diversa - Controller (*Definizione- *Dati)</t>
+  </si>
+  <si>
+    <t>YTDMENAX3M</t>
   </si>
 </sst>
 </file>
@@ -392,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -422,32 +463,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1252,6 +1297,270 @@
         <a:xfrm>
           <a:off x="5553074" y="21113485"/>
           <a:ext cx="7112051" cy="1375040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6315075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2218472</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Immagine 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F187623F-B030-E334-B74E-4F663C08218D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448299" y="28689301"/>
+          <a:ext cx="6076951" cy="2151796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8829675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11039712</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4991100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Immagine 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE0A94D-9167-B754-7422-B7A8076745A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14039850" y="28879800"/>
+          <a:ext cx="2210037" cy="4733925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2314575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8719544</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>5143500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Immagine 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D2C17DD-C44A-14E6-9787-6D5730D058E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448300" y="30937200"/>
+          <a:ext cx="8481419" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>266699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5062249</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3070046</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Immagine 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70C664A9-2948-A4F9-FF94-4A457A66995D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5629276" y="34089974"/>
+          <a:ext cx="4643148" cy="2803347"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352118</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3138172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6638925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>5048868</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Immagine 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFD863A1-019C-240B-C651-39DE12E55E50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5562293" y="36961447"/>
+          <a:ext cx="6286807" cy="1910696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3115332</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3915605</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Immagine 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DE5A554-548F-F251-307F-A72CB766A57C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5293519" y="25546050"/>
+          <a:ext cx="3031988" cy="3829880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1579,17 +1888,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7687DBCF-A6D8-4CEA-905C-1653A0EEC1EC}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="130.140625" customWidth="1"/>
+    <col min="3" max="3" width="169.85546875" customWidth="1"/>
     <col min="4" max="4" width="73.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1676,7 +1985,7 @@
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="6"/>
@@ -1688,7 +1997,7 @@
       <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="6"/>
@@ -1697,12 +2006,44 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="17" t="s">
         <v>27</v>
       </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="316.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1714,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C911D19C-0B41-4FDE-964A-0EDA8C996211}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,19 +2072,19 @@
       <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1757,7 +2098,7 @@
       <c r="C3" s="10">
         <v>6911</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="10">
         <v>6205</v>
       </c>
@@ -1769,4 +2110,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFEF73B-2A28-4DAD-A3A0-1A812F223D15}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="10">
+        <v>6001</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CC19D8-B440-47A0-BCD1-D33842864B68}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/patch/docs/patchList_protocolCore.xlsx
+++ b/patch/docs/patchList_protocolCore.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\patch\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5F696E-201B-4DD6-A08F-DDF11F3BA8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983A50C2-4D39-4F03-BB65-E29FFB601C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Core - patchList" sheetId="1" r:id="rId1"/>
     <sheet name="Core- elem porting manuale" sheetId="2" r:id="rId2"/>
-    <sheet name="Local menu" sheetId="3" r:id="rId3"/>
+    <sheet name="Menu" sheetId="3" r:id="rId3"/>
     <sheet name="Tabelle diverse" sheetId="4" r:id="rId4"/>
     <sheet name="Param Generali" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>SRC_X3_V12_X_V1_0</t>
   </si>
@@ -300,6 +300,18 @@
   </si>
   <si>
     <t>YTDMENAX3M</t>
+  </si>
+  <si>
+    <t>Abilitazioni Funzionali: dal taso [+] aggiungi le funzioni dell'AppCore AX3M dell'ambiente su cui hai appena installato la patch</t>
+  </si>
+  <si>
+    <t>6001/6002</t>
+  </si>
+  <si>
+    <t>EFFORT -PROD</t>
+  </si>
+  <si>
+    <t>N° tabella -EFFORT -PROD</t>
   </si>
 </sst>
 </file>
@@ -433,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -484,15 +496,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1890,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7687DBCF-A6D8-4CEA-905C-1653A0EEC1EC}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,29 +2026,31 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19">
+      <c r="C13" s="6"/>
+      <c r="D13" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2053,10 +2060,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C911D19C-0B41-4FDE-964A-0EDA8C996211}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,8 +2074,8 @@
     <col min="5" max="5" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
@@ -2087,8 +2094,11 @@
       <c r="F2" s="15" t="s">
         <v>32</v>
       </c>
+      <c r="G2" s="15" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2103,6 +2113,9 @@
         <v>6205</v>
       </c>
       <c r="F3" s="10">
+        <v>6205</v>
+      </c>
+      <c r="G3" s="10">
         <v>6205</v>
       </c>
     </row>
@@ -2114,10 +2127,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFEF73B-2A28-4DAD-A3A0-1A812F223D15}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2128,9 +2141,10 @@
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>39</v>
       </c>
@@ -2149,8 +2163,11 @@
       <c r="F1" s="15" t="s">
         <v>45</v>
       </c>
+      <c r="G1" s="15" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>40</v>
       </c>
@@ -2163,11 +2180,14 @@
       <c r="D3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="10">
-        <v>6001</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>46</v>
+      <c r="E3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
